--- a/survey_responses_mod_realistic.xlsx
+++ b/survey_responses_mod_realistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGHS-PC\Documents\SIT stuff\trimester 1\python grp project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEon\Documents\GitHub\Data-Analysis-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD76DBB-64FD-4785-B4AD-E49C2B7D01BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64DD66-BEFD-40FF-A6C1-C36F34096BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="240">
   <si>
     <t>Gender</t>
   </si>
@@ -578,12 +578,6 @@
   </si>
   <si>
     <t>Give us more realistic solutions instead of scripted</t>
-  </si>
-  <si>
-    <t>Poor reception at many MRT stations</t>
-  </si>
-  <si>
-    <t>Fix the reception issue first</t>
   </si>
   <si>
     <t>Famous of having the most outages</t>
@@ -1196,27 +1190,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="17.23046875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
-    <col min="11" max="11" width="42.109375" customWidth="1"/>
-    <col min="12" max="12" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="6" width="17.3046875" customWidth="1"/>
+    <col min="7" max="7" width="17.765625" customWidth="1"/>
+    <col min="8" max="8" width="18.23046875" customWidth="1"/>
+    <col min="9" max="9" width="21.3046875" customWidth="1"/>
+    <col min="10" max="10" width="22.84375" customWidth="1"/>
+    <col min="11" max="11" width="42.07421875" customWidth="1"/>
+    <col min="12" max="12" width="45.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1251,10 +1245,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>16</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>20</v>
       </c>
@@ -1435,7 +1429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1505,7 +1499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>18</v>
       </c>
@@ -1540,7 +1534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>15</v>
       </c>
@@ -1575,7 +1569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>18</v>
       </c>
@@ -1610,7 +1604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>12</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>16</v>
       </c>
@@ -1680,7 +1674,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>18</v>
       </c>
@@ -1715,7 +1709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>7</v>
       </c>
@@ -1750,7 +1744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>6</v>
       </c>
@@ -1785,7 +1779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>6</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>4</v>
       </c>
@@ -1855,7 +1849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>20</v>
       </c>
@@ -1925,7 +1919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>4</v>
       </c>
@@ -1960,7 +1954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>10</v>
       </c>
@@ -2030,7 +2024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>3</v>
       </c>
@@ -2065,7 +2059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>4</v>
       </c>
@@ -2100,7 +2094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>9</v>
       </c>
@@ -2135,7 +2129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>18</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>15</v>
       </c>
@@ -2199,13 +2193,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>11</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>16</v>
       </c>
@@ -2275,7 +2269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>8</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>4</v>
       </c>
@@ -2345,7 +2339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>6</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>3</v>
       </c>
@@ -2415,7 +2409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>19</v>
       </c>
@@ -2444,13 +2438,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
         <v>236</v>
       </c>
-      <c r="L35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>6</v>
       </c>
@@ -2485,7 +2479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>8</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>15</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>20</v>
       </c>
@@ -2590,7 +2584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>11</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>7</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>3</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>20</v>
       </c>
@@ -2730,7 +2724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>4</v>
       </c>
@@ -2765,7 +2759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>4</v>
       </c>
@@ -2794,13 +2788,13 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>9</v>
       </c>
@@ -2835,7 +2829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>3</v>
       </c>
@@ -2864,13 +2858,13 @@
         <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>12</v>
       </c>
@@ -2905,7 +2899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>7</v>
       </c>
@@ -2940,7 +2934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>9</v>
       </c>
@@ -2975,7 +2969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>8</v>
       </c>
@@ -3004,13 +2998,13 @@
         <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>12</v>
       </c>
@@ -3045,7 +3039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>14</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>10</v>
       </c>
@@ -3115,7 +3109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>3</v>
       </c>
@@ -3150,7 +3144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>5</v>
       </c>
@@ -3185,7 +3179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>19</v>
       </c>
@@ -3220,7 +3214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>4</v>
       </c>
@@ -3255,7 +3249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>18</v>
       </c>
@@ -3290,7 +3284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>11</v>
       </c>
@@ -3325,7 +3319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>13</v>
       </c>
@@ -3360,7 +3354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>16</v>
       </c>
@@ -3395,7 +3389,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>6</v>
       </c>
@@ -3430,7 +3424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>6</v>
       </c>
@@ -3465,7 +3459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>4</v>
       </c>
@@ -3500,7 +3494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>3</v>
       </c>
@@ -3535,7 +3529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>11</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>4</v>
       </c>
@@ -3605,7 +3599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>9</v>
       </c>
@@ -3640,7 +3634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>4</v>
       </c>
@@ -3675,7 +3669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>16</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>7</v>
       </c>
@@ -3745,7 +3739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>3</v>
       </c>
@@ -3774,13 +3768,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L73" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>16</v>
       </c>
@@ -3815,7 +3809,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>11</v>
       </c>
@@ -3850,7 +3844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>18</v>
       </c>
@@ -3885,7 +3879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>9</v>
       </c>
@@ -3920,7 +3914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>5</v>
       </c>
@@ -3955,7 +3949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>20</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>8</v>
       </c>
@@ -4025,7 +4019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>17</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>3</v>
       </c>
@@ -4095,7 +4089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>14</v>
       </c>
@@ -4130,7 +4124,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>7</v>
       </c>
@@ -4165,7 +4159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>6</v>
       </c>
@@ -4200,7 +4194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>17</v>
       </c>
@@ -4235,7 +4229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>5</v>
       </c>
@@ -4270,7 +4264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B88">
         <v>18</v>
       </c>
@@ -4305,7 +4299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>3</v>
       </c>
@@ -4340,7 +4334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>16</v>
       </c>
@@ -4375,7 +4369,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B91">
         <v>10</v>
       </c>
@@ -4410,7 +4404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>19</v>
       </c>
@@ -4445,7 +4439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>6</v>
       </c>
@@ -4480,7 +4474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>3</v>
       </c>
@@ -4515,7 +4509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>15</v>
       </c>
@@ -4550,7 +4544,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>20</v>
       </c>
@@ -4585,7 +4579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>17</v>
       </c>
@@ -4620,7 +4614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>11</v>
       </c>
@@ -4649,13 +4643,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L98" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>14</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>4</v>
       </c>
@@ -4725,7 +4719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>7</v>
       </c>
@@ -4760,7 +4754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>13</v>
       </c>
@@ -4795,7 +4789,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>9</v>
       </c>
@@ -4824,13 +4818,13 @@
         <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L103" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B104">
         <v>13</v>
       </c>
@@ -4865,7 +4859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B105">
         <v>3</v>
       </c>
@@ -4900,7 +4894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B106">
         <v>6</v>
       </c>
@@ -4935,7 +4929,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B107">
         <v>10</v>
       </c>
@@ -4970,7 +4964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B108">
         <v>7</v>
       </c>
@@ -5005,7 +4999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B109">
         <v>5</v>
       </c>
@@ -5040,7 +5034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B110">
         <v>7</v>
       </c>
@@ -5075,7 +5069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B111">
         <v>9</v>
       </c>
@@ -5110,7 +5104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B112">
         <v>14</v>
       </c>
@@ -5145,7 +5139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B113">
         <v>18</v>
       </c>
@@ -5174,13 +5168,13 @@
         <v>20</v>
       </c>
       <c r="K113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L113" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B114">
         <v>9</v>
       </c>
@@ -5215,7 +5209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B115">
         <v>16</v>
       </c>
@@ -5250,7 +5244,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B116">
         <v>4</v>
       </c>
@@ -5285,7 +5279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B117">
         <v>3</v>
       </c>
@@ -5320,7 +5314,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B118">
         <v>9</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B119">
         <v>5</v>
       </c>
@@ -5390,7 +5384,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B120">
         <v>19</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B121">
         <v>15</v>
       </c>
@@ -5460,7 +5454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B122">
         <v>12</v>
       </c>
@@ -5495,7 +5489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B123">
         <v>8</v>
       </c>
@@ -5530,7 +5524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B124">
         <v>10</v>
       </c>
@@ -5565,7 +5559,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B125">
         <v>20</v>
       </c>
@@ -5600,7 +5594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B126">
         <v>7</v>
       </c>
@@ -5635,7 +5629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B127">
         <v>20</v>
       </c>
@@ -5670,7 +5664,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B128">
         <v>3</v>
       </c>
@@ -5705,7 +5699,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B129">
         <v>10</v>
       </c>
@@ -5734,13 +5728,13 @@
         <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L129" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B130">
         <v>4</v>
       </c>
@@ -5775,7 +5769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B131">
         <v>8</v>
       </c>
@@ -5810,7 +5804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B132">
         <v>8</v>
       </c>
@@ -5845,7 +5839,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B133">
         <v>4</v>
       </c>
@@ -5880,7 +5874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B134">
         <v>16</v>
       </c>
@@ -5915,7 +5909,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B135">
         <v>9</v>
       </c>
@@ -5950,7 +5944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B136">
         <v>6</v>
       </c>
@@ -5985,7 +5979,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B137">
         <v>13</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B138">
         <v>5</v>
       </c>
@@ -6049,13 +6043,13 @@
         <v>21</v>
       </c>
       <c r="K138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L138" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B139">
         <v>5</v>
       </c>
@@ -6084,13 +6078,13 @@
         <v>20</v>
       </c>
       <c r="K139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L139" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B140">
         <v>4</v>
       </c>
@@ -6125,7 +6119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B141">
         <v>15</v>
       </c>
@@ -6160,7 +6154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B142">
         <v>16</v>
       </c>
@@ -6195,7 +6189,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B143">
         <v>11</v>
       </c>
@@ -6224,13 +6218,13 @@
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L143" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B144">
         <v>8</v>
       </c>
@@ -6265,7 +6259,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B145">
         <v>4</v>
       </c>
@@ -6300,7 +6294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B146">
         <v>3</v>
       </c>
@@ -6335,7 +6329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B147">
         <v>11</v>
       </c>
@@ -6370,7 +6364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B148">
         <v>5</v>
       </c>
@@ -6405,7 +6399,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B149">
         <v>20</v>
       </c>
@@ -6440,7 +6434,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B150">
         <v>11</v>
       </c>
@@ -6475,7 +6469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B151">
         <v>3</v>
       </c>
@@ -6510,7 +6504,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B152">
         <v>4</v>
       </c>
@@ -6539,13 +6533,13 @@
         <v>20</v>
       </c>
       <c r="K152" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L152" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B153">
         <v>13</v>
       </c>
@@ -6580,7 +6574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B154">
         <v>12</v>
       </c>
@@ -6615,7 +6609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B155">
         <v>6</v>
       </c>
@@ -6650,7 +6644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B156">
         <v>15</v>
       </c>
@@ -6685,7 +6679,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B157">
         <v>11</v>
       </c>
@@ -6720,7 +6714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B158">
         <v>5</v>
       </c>
@@ -6755,7 +6749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B159">
         <v>3</v>
       </c>
@@ -6790,7 +6784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B160">
         <v>9</v>
       </c>
@@ -6819,13 +6813,13 @@
         <v>21</v>
       </c>
       <c r="K160" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L160" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B161">
         <v>12</v>
       </c>
@@ -6860,7 +6854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B162">
         <v>3</v>
       </c>
@@ -6895,7 +6889,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B163">
         <v>10</v>
       </c>
@@ -6930,7 +6924,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B164">
         <v>9</v>
       </c>
@@ -6965,7 +6959,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B165">
         <v>5</v>
       </c>
@@ -7000,7 +6994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B166">
         <v>16</v>
       </c>
@@ -7035,7 +7029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B167">
         <v>20</v>
       </c>
@@ -7070,7 +7064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B168">
         <v>12</v>
       </c>
@@ -7105,7 +7099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B169">
         <v>17</v>
       </c>
@@ -7140,7 +7134,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B170">
         <v>15</v>
       </c>
@@ -7175,7 +7169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B171">
         <v>17</v>
       </c>
@@ -7204,13 +7198,13 @@
         <v>19</v>
       </c>
       <c r="K171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B172">
         <v>10</v>
       </c>
@@ -7239,13 +7233,13 @@
         <v>19</v>
       </c>
       <c r="K172" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L172" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B173">
         <v>13</v>
       </c>
@@ -7280,7 +7274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B174">
         <v>13</v>
       </c>
@@ -7315,7 +7309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B175">
         <v>4</v>
       </c>
@@ -7344,13 +7338,13 @@
         <v>19</v>
       </c>
       <c r="K175" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L175" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B176">
         <v>19</v>
       </c>
@@ -7379,13 +7373,13 @@
         <v>21</v>
       </c>
       <c r="K176" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B177">
         <v>14</v>
       </c>
@@ -7420,7 +7414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B178">
         <v>10</v>
       </c>
@@ -7449,13 +7443,13 @@
         <v>19</v>
       </c>
       <c r="K178" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L178" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B179">
         <v>16</v>
       </c>
@@ -7484,13 +7478,13 @@
         <v>20</v>
       </c>
       <c r="K179" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L179" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B180">
         <v>18</v>
       </c>
@@ -7525,7 +7519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B181">
         <v>5</v>
       </c>
@@ -7560,7 +7554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B182">
         <v>7</v>
       </c>
@@ -7589,13 +7583,13 @@
         <v>20</v>
       </c>
       <c r="K182" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B183">
         <v>6</v>
       </c>
@@ -7624,13 +7618,13 @@
         <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L183" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B184">
         <v>11</v>
       </c>
@@ -7665,7 +7659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B185">
         <v>14</v>
       </c>
@@ -7694,13 +7688,13 @@
         <v>21</v>
       </c>
       <c r="K185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B186">
         <v>11</v>
       </c>
@@ -7735,7 +7729,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B187">
         <v>5</v>
       </c>
@@ -7770,7 +7764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B188">
         <v>8</v>
       </c>
@@ -7805,7 +7799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B189">
         <v>4</v>
       </c>
@@ -7834,13 +7828,13 @@
         <v>21</v>
       </c>
       <c r="K189" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L189" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B190">
         <v>3</v>
       </c>
@@ -7869,13 +7863,13 @@
         <v>21</v>
       </c>
       <c r="K190" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L190" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B191">
         <v>5</v>
       </c>
@@ -7910,7 +7904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B192">
         <v>5</v>
       </c>
@@ -7945,7 +7939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B193">
         <v>9</v>
       </c>
@@ -7974,13 +7968,13 @@
         <v>21</v>
       </c>
       <c r="K193" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L193" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B194">
         <v>3</v>
       </c>
@@ -8012,10 +8006,10 @@
         <v>24</v>
       </c>
       <c r="L194" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B195">
         <v>4</v>
       </c>
@@ -8050,7 +8044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B196">
         <v>12</v>
       </c>
@@ -8085,7 +8079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B197">
         <v>14</v>
       </c>
@@ -8114,13 +8108,13 @@
         <v>19</v>
       </c>
       <c r="K197" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L197" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B198">
         <v>7</v>
       </c>
@@ -8155,7 +8149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B199">
         <v>3</v>
       </c>
@@ -8187,10 +8181,10 @@
         <v>24</v>
       </c>
       <c r="L199" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B200">
         <v>4</v>
       </c>
@@ -8225,7 +8219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B201">
         <v>8</v>
       </c>
@@ -8254,13 +8248,13 @@
         <v>21</v>
       </c>
       <c r="K201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L201" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B202">
         <v>8</v>
       </c>
@@ -8269,30 +8263,6 @@
       </c>
       <c r="D202">
         <v>1987</v>
-      </c>
-      <c r="E202" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202">
-        <v>5</v>
-      </c>
-      <c r="H202">
-        <v>5</v>
-      </c>
-      <c r="I202">
-        <v>5</v>
-      </c>
-      <c r="J202" t="s">
-        <v>19</v>
-      </c>
-      <c r="K202" t="s">
-        <v>186</v>
-      </c>
-      <c r="L202" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/survey_responses_mod_realistic.xlsx
+++ b/survey_responses_mod_realistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEon\Documents\GitHub\Data-Analysis-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64DD66-BEFD-40FF-A6C1-C36F34096BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D63295-551B-48BF-8CB5-B11509845BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="239">
   <si>
     <t>Gender</t>
   </si>
@@ -136,15 +136,6 @@
     <t>internal survey time calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">MCQ </t>
-  </si>
-  <si>
-    <t>Open-ended</t>
-  </si>
-  <si>
-    <t>No sale in current telco</t>
-  </si>
-  <si>
     <t>Slow and incompetent support staff</t>
   </si>
   <si>
@@ -740,6 +731,12 @@
   </si>
   <si>
     <t>Stop slacking in your job</t>
+  </si>
+  <si>
+    <t>multiple choice</t>
+  </si>
+  <si>
+    <t>open ended</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L202" sqref="L202"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1245,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1256,34 +1253,34 @@
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1291,37 +1288,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1985</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1356,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1388,10 +1355,10 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1423,10 +1390,10 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1458,10 +1425,10 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -1493,10 +1460,10 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1563,10 +1530,10 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1598,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
         <v>28</v>
@@ -1633,10 +1600,10 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -1668,10 +1635,10 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -1706,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -1738,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1773,10 +1740,10 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -1811,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -1878,10 +1845,10 @@
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -1913,10 +1880,10 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
@@ -1948,10 +1915,10 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -1983,10 +1950,10 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
@@ -2018,7 +1985,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
         <v>30</v>
@@ -2053,10 +2020,10 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -2088,10 +2055,10 @@
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -2123,7 +2090,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
         <v>29</v>
@@ -2158,10 +2125,10 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
@@ -2193,10 +2160,10 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
@@ -2298,7 +2265,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -2333,7 +2300,7 @@
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
         <v>28</v>
@@ -2368,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
         <v>30</v>
@@ -2438,10 +2405,10 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
@@ -2476,7 +2443,7 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
@@ -2543,10 +2510,10 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
@@ -2578,10 +2545,10 @@
         <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -2613,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L40" t="s">
         <v>29</v>
@@ -2648,10 +2615,10 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
@@ -2718,10 +2685,10 @@
         <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -2753,7 +2720,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L44" t="s">
         <v>28</v>
@@ -2788,7 +2755,7 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L45" t="s">
         <v>29</v>
@@ -2826,7 +2793,7 @@
         <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
@@ -2858,10 +2825,10 @@
         <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
@@ -2963,10 +2930,10 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -2998,10 +2965,10 @@
         <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -3106,7 +3073,7 @@
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -3138,10 +3105,10 @@
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -3173,10 +3140,10 @@
         <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -3208,7 +3175,7 @@
         <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -3243,10 +3210,10 @@
         <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -3383,10 +3350,10 @@
         <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -3453,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s">
         <v>30</v>
@@ -3488,10 +3455,10 @@
         <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -3523,10 +3490,10 @@
         <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -3558,10 +3525,10 @@
         <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -3663,10 +3630,10 @@
         <v>19</v>
       </c>
       <c r="K70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -3733,10 +3700,10 @@
         <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -3768,10 +3735,10 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L73" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -3803,10 +3770,10 @@
         <v>19</v>
       </c>
       <c r="K74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -3873,10 +3840,10 @@
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L76" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -3943,10 +3910,10 @@
         <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -3978,10 +3945,10 @@
         <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -4083,10 +4050,10 @@
         <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -4118,10 +4085,10 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -4153,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s">
         <v>29</v>
@@ -4188,10 +4155,10 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -4258,10 +4225,10 @@
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -4293,10 +4260,10 @@
         <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L88" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -4363,10 +4330,10 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
@@ -4468,10 +4435,10 @@
         <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L93" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
@@ -4503,10 +4470,10 @@
         <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
@@ -4538,10 +4505,10 @@
         <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
@@ -4643,7 +4610,7 @@
         <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L98" t="s">
         <v>28</v>
@@ -4678,10 +4645,10 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
@@ -4783,10 +4750,10 @@
         <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
@@ -4818,10 +4785,10 @@
         <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L103" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.4">
@@ -4853,10 +4820,10 @@
         <v>19</v>
       </c>
       <c r="K104" t="s">
+        <v>122</v>
+      </c>
+      <c r="L104" t="s">
         <v>125</v>
-      </c>
-      <c r="L104" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.4">
@@ -4888,10 +4855,10 @@
         <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L105" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.4">
@@ -4923,10 +4890,10 @@
         <v>19</v>
       </c>
       <c r="K106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L106" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.4">
@@ -4958,10 +4925,10 @@
         <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L107" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.4">
@@ -5098,10 +5065,10 @@
         <v>19</v>
       </c>
       <c r="K111" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L111" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.4">
@@ -5133,10 +5100,10 @@
         <v>21</v>
       </c>
       <c r="K112" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.4">
@@ -5168,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="K113" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L113" t="s">
         <v>28</v>
@@ -5238,10 +5205,10 @@
         <v>19</v>
       </c>
       <c r="K115" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L115" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.4">
@@ -5273,10 +5240,10 @@
         <v>21</v>
       </c>
       <c r="K116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.4">
@@ -5308,10 +5275,10 @@
         <v>20</v>
       </c>
       <c r="K117" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L117" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.4">
@@ -5343,10 +5310,10 @@
         <v>20</v>
       </c>
       <c r="K118" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L118" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.4">
@@ -5378,10 +5345,10 @@
         <v>21</v>
       </c>
       <c r="K119" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.4">
@@ -5553,10 +5520,10 @@
         <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L124" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.4">
@@ -5658,10 +5625,10 @@
         <v>21</v>
       </c>
       <c r="K127" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.4">
@@ -5693,10 +5660,10 @@
         <v>21</v>
       </c>
       <c r="K128" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L128" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.4">
@@ -5728,10 +5695,10 @@
         <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L129" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.4">
@@ -5833,10 +5800,10 @@
         <v>19</v>
       </c>
       <c r="K132" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L132" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.4">
@@ -5903,10 +5870,10 @@
         <v>21</v>
       </c>
       <c r="K134" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L134" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.4">
@@ -5938,10 +5905,10 @@
         <v>19</v>
       </c>
       <c r="K135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.4">
@@ -5973,10 +5940,10 @@
         <v>21</v>
       </c>
       <c r="K136" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L136" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.4">
@@ -6043,7 +6010,7 @@
         <v>21</v>
       </c>
       <c r="K138" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L138" t="s">
         <v>30</v>
@@ -6078,7 +6045,7 @@
         <v>20</v>
       </c>
       <c r="K139" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L139" t="s">
         <v>31</v>
@@ -6113,10 +6080,10 @@
         <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L140" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.4">
@@ -6183,10 +6150,10 @@
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L142" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.4">
@@ -6218,10 +6185,10 @@
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L143" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.4">
@@ -6253,10 +6220,10 @@
         <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L144" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.4">
@@ -6393,10 +6360,10 @@
         <v>19</v>
       </c>
       <c r="K148" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L148" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.4">
@@ -6431,7 +6398,7 @@
         <v>24</v>
       </c>
       <c r="L149" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.4">
@@ -6498,10 +6465,10 @@
         <v>19</v>
       </c>
       <c r="K151" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L151" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.4">
@@ -6533,10 +6500,10 @@
         <v>20</v>
       </c>
       <c r="K152" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L152" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.4">
@@ -6673,10 +6640,10 @@
         <v>20</v>
       </c>
       <c r="K156" t="s">
+        <v>172</v>
+      </c>
+      <c r="L156" t="s">
         <v>175</v>
-      </c>
-      <c r="L156" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.4">
@@ -6708,10 +6675,10 @@
         <v>21</v>
       </c>
       <c r="K157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L157" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.4">
@@ -6746,7 +6713,7 @@
         <v>27</v>
       </c>
       <c r="L158" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.4">
@@ -6778,10 +6745,10 @@
         <v>20</v>
       </c>
       <c r="K159" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L159" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.4">
@@ -6813,10 +6780,10 @@
         <v>21</v>
       </c>
       <c r="K160" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L160" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.4">
@@ -6883,10 +6850,10 @@
         <v>20</v>
       </c>
       <c r="K162" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L162" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.4">
@@ -6918,10 +6885,10 @@
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.4">
@@ -6953,10 +6920,10 @@
         <v>19</v>
       </c>
       <c r="K164" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L164" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.4">
@@ -7128,10 +7095,10 @@
         <v>20</v>
       </c>
       <c r="K169" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L169" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.4">
@@ -7198,10 +7165,10 @@
         <v>19</v>
       </c>
       <c r="K171" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L171" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.4">
@@ -7233,7 +7200,7 @@
         <v>19</v>
       </c>
       <c r="K172" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L172" t="s">
         <v>29</v>
@@ -7338,10 +7305,10 @@
         <v>19</v>
       </c>
       <c r="K175" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L175" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.4">
@@ -7373,10 +7340,10 @@
         <v>21</v>
       </c>
       <c r="K176" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L176" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.4">
@@ -7443,10 +7410,10 @@
         <v>19</v>
       </c>
       <c r="K178" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L178" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.4">
@@ -7478,10 +7445,10 @@
         <v>20</v>
       </c>
       <c r="K179" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L179" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.4">
@@ -7513,10 +7480,10 @@
         <v>21</v>
       </c>
       <c r="K180" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L180" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.4">
@@ -7548,10 +7515,10 @@
         <v>21</v>
       </c>
       <c r="K181" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L181" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.4">
@@ -7583,10 +7550,10 @@
         <v>20</v>
       </c>
       <c r="K182" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.4">
@@ -7618,7 +7585,7 @@
         <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L183" t="s">
         <v>31</v>
@@ -7688,10 +7655,10 @@
         <v>21</v>
       </c>
       <c r="K185" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L185" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.4">
@@ -7723,10 +7690,10 @@
         <v>20</v>
       </c>
       <c r="K186" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L186" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.4">
@@ -7758,10 +7725,10 @@
         <v>20</v>
       </c>
       <c r="K187" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L187" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.4">
@@ -7828,10 +7795,10 @@
         <v>21</v>
       </c>
       <c r="K189" t="s">
+        <v>208</v>
+      </c>
+      <c r="L189" t="s">
         <v>211</v>
-      </c>
-      <c r="L189" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.4">
@@ -7863,10 +7830,10 @@
         <v>21</v>
       </c>
       <c r="K190" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L190" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.4">
@@ -7898,10 +7865,10 @@
         <v>19</v>
       </c>
       <c r="K191" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L191" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.4">
@@ -7933,10 +7900,10 @@
         <v>20</v>
       </c>
       <c r="K192" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L192" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.4">
@@ -7968,10 +7935,10 @@
         <v>21</v>
       </c>
       <c r="K193" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L193" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.4">
@@ -8006,7 +7973,7 @@
         <v>24</v>
       </c>
       <c r="L194" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.4">
@@ -8108,10 +8075,10 @@
         <v>19</v>
       </c>
       <c r="K197" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L197" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.4">
@@ -8181,7 +8148,7 @@
         <v>24</v>
       </c>
       <c r="L199" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.4">
@@ -8213,10 +8180,10 @@
         <v>19</v>
       </c>
       <c r="K200" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L200" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.4">
@@ -8248,10 +8215,10 @@
         <v>21</v>
       </c>
       <c r="K201" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L201" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.4">
@@ -8263,6 +8230,30 @@
       </c>
       <c r="D202">
         <v>1987</v>
+      </c>
+      <c r="E202" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>5</v>
+      </c>
+      <c r="J202" t="s">
+        <v>21</v>
+      </c>
+      <c r="K202" t="s">
+        <v>222</v>
+      </c>
+      <c r="L202" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/survey_responses_mod_realistic.xlsx
+++ b/survey_responses_mod_realistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEon\Documents\GitHub\Data-Analysis-Project-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIT\Trimester 1\INF 1002\Project\Data-Analysis-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D63295-551B-48BF-8CB5-B11509845BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D66743-111A-48CA-8C04-613B4D3AC97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,8 +785,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -809,11 +815,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -831,6 +850,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,8 +899,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26A3260C-34AC-403E-A284-4A27D311751B}" name="Table1" displayName="Table1" ref="B1:L202" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:L202" xr:uid="{26A3260C-34AC-403E-A284-4A27D311751B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26A3260C-34AC-403E-A284-4A27D311751B}" name="Table1" displayName="Table1" ref="B1:L201" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:L201" xr:uid="{26A3260C-34AC-403E-A284-4A27D311751B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00AA3D08-3C7C-4093-A28C-D07946FF4AE6}" name="time taken survey in mins"/>
     <tableColumn id="2" xr3:uid="{16D261C8-31F6-43AE-997E-A899E9A3511E}" name="Gender"/>
@@ -1185,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L209" sqref="L209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1288,56 +1308,86 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1979</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1972</v>
+        <v>1994</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1349,39 +1399,39 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1390,15 +1440,15 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1407,179 +1457,179 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>1976</v>
+        <v>1995</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1588,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1597,68 +1647,68 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1667,48 +1717,48 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1716,354 +1766,354 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>1991</v>
+        <v>1971</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>1996</v>
+        <v>1976</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -2075,78 +2125,78 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>1976</v>
+        <v>1997</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1996</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>1997</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
       <c r="G28">
         <v>5</v>
       </c>
@@ -2154,39 +2204,39 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2195,7 +2245,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
         <v>29</v>
@@ -2203,7 +2253,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2212,261 +2262,261 @@
         <v>1979</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>1970</v>
+        <v>1995</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>1995</v>
+        <v>1971</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>1971</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -2475,220 +2525,220 @@
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>1971</v>
+        <v>2003</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>5</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>1982</v>
+        <v>2000</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1991</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>2000</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
-      </c>
       <c r="K43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -2696,404 +2746,404 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B45">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>1983</v>
+        <v>1995</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>1994</v>
+        <v>1971</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
         <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52">
-        <v>1975</v>
+        <v>1987</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>1983</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
         <v>14</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>1987</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54">
-        <v>1983</v>
+        <v>1970</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -3105,15 +3155,15 @@
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B56">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -3122,165 +3172,165 @@
         <v>1985</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="L56" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B57">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="L58" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B59">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L60" t="s">
         <v>28</v>
@@ -3288,72 +3338,72 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B62">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -3364,16 +3414,16 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -3382,97 +3432,97 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64">
-        <v>1981</v>
+        <v>1998</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65">
-        <v>1998</v>
+        <v>1973</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L65" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B66">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -3481,170 +3531,170 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B67">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="L67" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B68">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
       <c r="D68">
-        <v>1975</v>
+        <v>1994</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B69">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L69" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B70">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>1984</v>
+        <v>1973</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B71">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
@@ -3653,33 +3703,33 @@
         <v>17</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="L71" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B72">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>1983</v>
+        <v>1972</v>
       </c>
       <c r="E72" t="s">
         <v>13</v>
@@ -3688,220 +3738,220 @@
         <v>17</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B73">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B74">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>1979</v>
+        <v>1993</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G74">
         <v>4</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="L74" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>1993</v>
+        <v>1977</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>1989</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
         <v>18</v>
       </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <v>1977</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J76" t="s">
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="L76" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="L77" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B78">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -3910,173 +3960,173 @@
         <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="L78" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B79">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B80">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B81">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H81">
         <v>4</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="L81" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B82">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="L82" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B83">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -4085,164 +4135,164 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L83" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J84" t="s">
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B85">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B86">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="L86" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B87">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G87">
         <v>5</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L87" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B88">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
@@ -4251,208 +4301,208 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B89">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B90">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
       </c>
       <c r="D90">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B91">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91">
-        <v>2003</v>
+        <v>1978</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B92">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="L92" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="L93" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B94">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>1971</v>
+        <v>1984</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -4461,170 +4511,170 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="L94" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B95">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="L95" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B96">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B97">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97">
-        <v>1996</v>
+        <v>1977</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
         <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="L97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B98">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L98" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B99">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -4633,147 +4683,147 @@
         <v>16</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="L99" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>5</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B101">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="L101" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B102">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="L102" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B103">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -4782,53 +4832,53 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K103" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="L103" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B104">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>1997</v>
+        <v>1974</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>4</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="L104" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -4840,10 +4890,10 @@
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -4852,24 +4902,24 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="L105" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B106">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -4887,115 +4937,115 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L106" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K107" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="L107" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>21</v>
       </c>
       <c r="K108" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B109">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K109" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L109" t="s">
         <v>28</v>
@@ -5003,19 +5053,19 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -5024,135 +5074,135 @@
         <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
       </c>
       <c r="K110" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="L110" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B111">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111">
-        <v>1997</v>
+        <v>1975</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111">
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K111" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="L111" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B112">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K112" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="L112" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B113">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>20</v>
       </c>
       <c r="K113" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B114">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
@@ -5161,100 +5211,100 @@
         <v>5</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="L114" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B115">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
       </c>
       <c r="D116">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>4</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K116" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="L116" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B117">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>1988</v>
+        <v>2002</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -5266,170 +5316,170 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
         <v>20</v>
       </c>
       <c r="K117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L117" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B118">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
       </c>
       <c r="D118">
-        <v>2002</v>
+        <v>1982</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K118" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="L118" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B119">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119">
-        <v>1982</v>
+        <v>1997</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="L119" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B120">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L120" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B121">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
         <v>16</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K121" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L121" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -5444,293 +5494,293 @@
         <v>1</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K122" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D123">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="L123" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B124">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
       </c>
       <c r="D124">
-        <v>1978</v>
+        <v>1996</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K124" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="L124" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B125">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K125" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L125" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B126">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126">
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K126" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="L126" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B127">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D127">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
         <v>16</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>21</v>
       </c>
       <c r="K127" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="L127" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B128">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128">
-        <v>1995</v>
+        <v>1979</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K128" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="L128" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B129">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D129">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K129" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="L129" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130">
         <v>1971</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>21</v>
       </c>
       <c r="K130" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L130" t="s">
         <v>30</v>
@@ -5741,45 +5791,45 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131">
-        <v>1971</v>
+        <v>1997</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="L131" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -5788,33 +5838,33 @@
         <v>14</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K132" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="L132" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B133">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -5823,109 +5873,109 @@
         <v>14</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J133" t="s">
         <v>21</v>
       </c>
       <c r="K133" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="L133" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B134">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
       </c>
       <c r="D134">
-        <v>1981</v>
+        <v>1996</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I134">
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K134" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="L134" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B135">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
       </c>
       <c r="D135">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
       </c>
       <c r="G135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K135" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="L135" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B136">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>10</v>
       </c>
       <c r="D136">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -5934,51 +5984,51 @@
         <v>4</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K136" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="L136" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B137">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
       </c>
       <c r="D137">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G137">
         <v>3</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K137" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="L137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.4">
@@ -5989,86 +6039,86 @@
         <v>10</v>
       </c>
       <c r="D138">
-        <v>1976</v>
+        <v>1989</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
         <v>15</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
       <c r="D139">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H139">
         <v>4</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K139" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="L139" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B140">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -6077,106 +6127,106 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K140" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L140" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B141">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141">
         <v>1994</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G141">
         <v>2</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="L141" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>1988</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
         <v>16</v>
       </c>
-      <c r="C142" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142">
-        <v>1994</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>15</v>
-      </c>
       <c r="G142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="L142" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B143">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>10</v>
       </c>
       <c r="D143">
-        <v>1988</v>
+        <v>2001</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -6185,412 +6235,412 @@
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="L143" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B144">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K144" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="L144" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145">
-        <v>1990</v>
+        <v>1976</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K145" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B146">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146">
-        <v>1976</v>
+        <v>1989</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>21</v>
       </c>
       <c r="K146" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L146" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B147">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>4</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K147" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="L147" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B148">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K148" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="L148" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B149">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>2001</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149" t="s">
         <v>20</v>
       </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149">
-        <v>1992</v>
-      </c>
-      <c r="E149" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149">
-        <v>5</v>
-      </c>
-      <c r="H149">
-        <v>3</v>
-      </c>
-      <c r="I149">
-        <v>3</v>
-      </c>
-      <c r="J149" t="s">
-        <v>21</v>
-      </c>
       <c r="K149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L149" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B150">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150">
-        <v>2001</v>
+        <v>1971</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K150" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="L150" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
       </c>
       <c r="D151">
-        <v>1971</v>
+        <v>2002</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K151" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="L151" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B152">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>10</v>
       </c>
       <c r="D152">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>20</v>
       </c>
       <c r="K152" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="L152" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B153">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>1975</v>
+      </c>
+      <c r="E153" t="s">
         <v>13</v>
-      </c>
-      <c r="C153" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153">
-        <v>1988</v>
-      </c>
-      <c r="E153" t="s">
-        <v>11</v>
       </c>
       <c r="F153" t="s">
         <v>16</v>
       </c>
       <c r="G153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>1991</v>
+      </c>
+      <c r="E154" t="s">
         <v>12</v>
       </c>
-      <c r="C154" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154">
-        <v>1975</v>
-      </c>
-      <c r="E154" t="s">
-        <v>13</v>
-      </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B155">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D155">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -6599,196 +6649,196 @@
         <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K155" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="L155" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>1993</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
         <v>15</v>
       </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156">
-        <v>1996</v>
-      </c>
-      <c r="E156" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" t="s">
-        <v>14</v>
-      </c>
       <c r="G156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>1992</v>
+      </c>
+      <c r="E157" t="s">
         <v>11</v>
       </c>
-      <c r="C157" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157">
-        <v>1993</v>
-      </c>
-      <c r="E157" t="s">
-        <v>12</v>
-      </c>
       <c r="F157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G157">
         <v>4</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K157" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="L157" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="D158">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>20</v>
       </c>
       <c r="K158" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="L158" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B159">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159">
-        <v>1981</v>
+        <v>2003</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
       </c>
       <c r="G159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="L159" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B160">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
       </c>
       <c r="D160">
-        <v>2003</v>
+        <v>1977</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J160" t="s">
         <v>21</v>
       </c>
       <c r="K160" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="L160" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B161">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C161" t="s">
         <v>10</v>
@@ -6797,83 +6847,83 @@
         <v>1977</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K161" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="L161" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B162">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>4</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K162" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L162" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B163">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
       </c>
       <c r="D163">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -6882,115 +6932,115 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K163" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="L163" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B164">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
       </c>
       <c r="D164">
-        <v>1976</v>
+        <v>2003</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G164">
         <v>5</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K164" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="L164" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B165">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
       </c>
       <c r="D165">
-        <v>2003</v>
+        <v>1977</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K165" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B166">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J166" t="s">
         <v>19</v>
       </c>
       <c r="K166" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L166" t="s">
         <v>30</v>
@@ -6998,83 +7048,83 @@
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B167">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K167" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B168">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F168" t="s">
         <v>15</v>
       </c>
       <c r="G168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K168" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="L168" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B169">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
@@ -7083,115 +7133,115 @@
         <v>15</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K169" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="L169" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B170">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>19</v>
       </c>
       <c r="K170" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="L170" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B171">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
       </c>
       <c r="D171">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
         <v>18</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J171" t="s">
         <v>19</v>
       </c>
       <c r="K171" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L171" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B172">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D172">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I172">
         <v>4</v>
@@ -7200,10 +7250,10 @@
         <v>19</v>
       </c>
       <c r="K172" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="L172" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.4">
@@ -7214,16 +7264,16 @@
         <v>9</v>
       </c>
       <c r="D173">
-        <v>1994</v>
+        <v>1973</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -7232,94 +7282,94 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K173" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L173" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B174">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174">
-        <v>1973</v>
+        <v>1990</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K174" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="L174" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B175">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K175" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="L175" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B176">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -7337,59 +7387,59 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K176" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="L176" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B177">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
       </c>
       <c r="D177">
-        <v>1978</v>
+        <v>2001</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K177" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="L177" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B178">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
         <v>9</v>
       </c>
       <c r="D178">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -7398,211 +7448,211 @@
         <v>16</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K178" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L178" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B179">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K179" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="L179" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B180">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
       </c>
       <c r="D180">
-        <v>1990</v>
+        <v>2003</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>21</v>
       </c>
       <c r="K180" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="L180" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B181">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>10</v>
       </c>
       <c r="D181">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E181" t="s">
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L181" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B182">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>10</v>
       </c>
       <c r="D182">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K182" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L182" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B183">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="E183" t="s">
         <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
         <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="L183" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <v>1977</v>
+      </c>
+      <c r="E184" t="s">
         <v>11</v>
-      </c>
-      <c r="C184" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184">
-        <v>1992</v>
-      </c>
-      <c r="E184" t="s">
-        <v>12</v>
       </c>
       <c r="F184" t="s">
         <v>17</v>
@@ -7611,109 +7661,109 @@
         <v>4</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>21</v>
       </c>
       <c r="K184" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="L184" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B185">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
         <v>10</v>
       </c>
       <c r="D185">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K185" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L185" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>1974</v>
+      </c>
+      <c r="E186" t="s">
         <v>11</v>
       </c>
-      <c r="C186" t="s">
-        <v>10</v>
-      </c>
-      <c r="D186">
-        <v>1988</v>
-      </c>
-      <c r="E186" t="s">
-        <v>12</v>
-      </c>
       <c r="F186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186">
         <v>4</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J186" t="s">
         <v>20</v>
       </c>
       <c r="K186" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="L186" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B187">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D187">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
         <v>4</v>
@@ -7722,118 +7772,118 @@
         <v>4</v>
       </c>
       <c r="J187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K187" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L187" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B188">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188">
-        <v>1984</v>
+        <v>1974</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J188" t="s">
         <v>21</v>
       </c>
       <c r="K188" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="L188" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
       </c>
       <c r="D189">
-        <v>1974</v>
+        <v>1991</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189">
         <v>5</v>
       </c>
       <c r="I189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>21</v>
       </c>
       <c r="K189" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L189" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B190">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>10</v>
       </c>
       <c r="D190">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K190" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="L190" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.4">
@@ -7841,51 +7891,51 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B192">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
       </c>
       <c r="D192">
-        <v>1978</v>
+        <v>1990</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G192">
         <v>3</v>
@@ -7897,272 +7947,272 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K192" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="L192" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B193">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
       </c>
       <c r="D193">
-        <v>1990</v>
+        <v>1971</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G193">
         <v>3</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K193" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="L193" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="E194" t="s">
         <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K194" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L194" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B195">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
         <v>10</v>
       </c>
       <c r="D195">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J195" t="s">
         <v>21</v>
       </c>
       <c r="K195" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B196">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196">
-        <v>1974</v>
+        <v>2002</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K196" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="L196" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B197">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197">
-        <v>2002</v>
+        <v>1976</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K197" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="L197" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B198">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K198" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L198" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
       </c>
       <c r="D199">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K199" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="L199" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B200">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="E200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
         <v>17</v>
@@ -8171,19 +8221,19 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J200" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K200" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="L200" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.4">
@@ -8191,10 +8241,10 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D201">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="E201" t="s">
         <v>11</v>
@@ -8218,41 +8268,6 @@
         <v>222</v>
       </c>
       <c r="L201" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B202">
-        <v>8</v>
-      </c>
-      <c r="C202" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202">
-        <v>1987</v>
-      </c>
-      <c r="E202" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>2</v>
-      </c>
-      <c r="I202">
-        <v>5</v>
-      </c>
-      <c r="J202" t="s">
-        <v>21</v>
-      </c>
-      <c r="K202" t="s">
-        <v>222</v>
-      </c>
-      <c r="L202" t="s">
         <v>223</v>
       </c>
     </row>

--- a/survey_responses_mod_realistic.xlsx
+++ b/survey_responses_mod_realistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIT\Trimester 1\INF 1002\Project\Data-Analysis-Project-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEon\Documents\GitHub\Data-Analysis-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D66743-111A-48CA-8C04-613B4D3AC97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77780062-307C-41CC-BF0C-68F5D76A4646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="239">
   <si>
     <t>Gender</t>
   </si>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L209" sqref="L209"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1334,9 +1334,6 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" t="s">
         <v>57</v>
       </c>

--- a/survey_responses_mod_realistic.xlsx
+++ b/survey_responses_mod_realistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEon\Documents\GitHub\Data-Analysis-Project-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\Data-Analysis-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77780062-307C-41CC-BF0C-68F5D76A4646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F1943-D9D9-4BDE-8A3A-2430666C7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="240">
   <si>
     <t>Gender</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>open ended</t>
+  </si>
+  <si>
+    <t>Cheaper from if get from others</t>
   </si>
 </sst>
 </file>
@@ -1207,27 +1210,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="17.23046875" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.69140625" customWidth="1"/>
-    <col min="6" max="6" width="17.3046875" customWidth="1"/>
-    <col min="7" max="7" width="17.765625" customWidth="1"/>
-    <col min="8" max="8" width="18.23046875" customWidth="1"/>
-    <col min="9" max="9" width="21.3046875" customWidth="1"/>
-    <col min="10" max="10" width="22.84375" customWidth="1"/>
-    <col min="11" max="11" width="42.07421875" customWidth="1"/>
-    <col min="12" max="12" width="45.4609375" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="42.08984375" customWidth="1"/>
+    <col min="12" max="12" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1316,29 +1319,14 @@
       <c r="D3">
         <v>1979</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="K3" t="s">
+        <v>239</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>16</v>
       </c>
@@ -1373,7 +1361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>20</v>
       </c>
@@ -1408,7 +1396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1443,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>7</v>
       </c>
@@ -1478,7 +1466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>18</v>
       </c>
@@ -1513,7 +1501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>15</v>
       </c>
@@ -1548,7 +1536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>18</v>
       </c>
@@ -1583,7 +1571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>12</v>
       </c>
@@ -1618,7 +1606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>16</v>
       </c>
@@ -1653,7 +1641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>18</v>
       </c>
@@ -1688,7 +1676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>7</v>
       </c>
@@ -1723,7 +1711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>6</v>
       </c>
@@ -1758,7 +1746,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>6</v>
       </c>
@@ -1793,7 +1781,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>4</v>
       </c>
@@ -1828,7 +1816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1863,7 +1851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>20</v>
       </c>
@@ -1898,7 +1886,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>4</v>
       </c>
@@ -1933,7 +1921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1968,7 +1956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>10</v>
       </c>
@@ -2003,7 +1991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>3</v>
       </c>
@@ -2038,7 +2026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>4</v>
       </c>
@@ -2073,7 +2061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>9</v>
       </c>
@@ -2108,7 +2096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>18</v>
       </c>
@@ -2143,7 +2131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>15</v>
       </c>
@@ -2178,7 +2166,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>11</v>
       </c>
@@ -2213,7 +2201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>16</v>
       </c>
@@ -2248,7 +2236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>8</v>
       </c>
@@ -2283,7 +2271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>4</v>
       </c>
@@ -2318,7 +2306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>6</v>
       </c>
@@ -2353,7 +2341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>3</v>
       </c>
@@ -2388,7 +2376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>19</v>
       </c>
@@ -2423,7 +2411,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>6</v>
       </c>
@@ -2458,7 +2446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>8</v>
       </c>
@@ -2493,7 +2481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>15</v>
       </c>
@@ -2528,7 +2516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>20</v>
       </c>
@@ -2563,7 +2551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>11</v>
       </c>
@@ -2598,7 +2586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>7</v>
       </c>
@@ -2633,7 +2621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>3</v>
       </c>
@@ -2668,7 +2656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>20</v>
       </c>
@@ -2703,7 +2691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>4</v>
       </c>
@@ -2738,7 +2726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>4</v>
       </c>
@@ -2773,7 +2761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>9</v>
       </c>
@@ -2808,7 +2796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>3</v>
       </c>
@@ -2843,7 +2831,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>12</v>
       </c>
@@ -2878,7 +2866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>7</v>
       </c>
@@ -2913,7 +2901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>9</v>
       </c>
@@ -2948,7 +2936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>8</v>
       </c>
@@ -2983,7 +2971,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>12</v>
       </c>
@@ -3018,7 +3006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>14</v>
       </c>
@@ -3053,7 +3041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>10</v>
       </c>
@@ -3088,7 +3076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>3</v>
       </c>
@@ -3123,7 +3111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>5</v>
       </c>
@@ -3158,7 +3146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>19</v>
       </c>
@@ -3193,7 +3181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>4</v>
       </c>
@@ -3228,7 +3216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>18</v>
       </c>
@@ -3263,7 +3251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>11</v>
       </c>
@@ -3298,7 +3286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>13</v>
       </c>
@@ -3333,7 +3321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>16</v>
       </c>
@@ -3368,7 +3356,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>6</v>
       </c>
@@ -3403,7 +3391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>6</v>
       </c>
@@ -3438,7 +3426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>4</v>
       </c>
@@ -3473,7 +3461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>3</v>
       </c>
@@ -3508,7 +3496,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>11</v>
       </c>
@@ -3543,7 +3531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>4</v>
       </c>
@@ -3578,7 +3566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>9</v>
       </c>
@@ -3613,7 +3601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>4</v>
       </c>
@@ -3648,7 +3636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>16</v>
       </c>
@@ -3683,7 +3671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>7</v>
       </c>
@@ -3718,7 +3706,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>3</v>
       </c>
@@ -3753,7 +3741,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>16</v>
       </c>
@@ -3788,7 +3776,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>11</v>
       </c>
@@ -3823,7 +3811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>18</v>
       </c>
@@ -3858,7 +3846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>9</v>
       </c>
@@ -3893,7 +3881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>5</v>
       </c>
@@ -3928,7 +3916,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>20</v>
       </c>
@@ -3963,7 +3951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>8</v>
       </c>
@@ -3998,7 +3986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>17</v>
       </c>
@@ -4033,7 +4021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>3</v>
       </c>
@@ -4068,7 +4056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>14</v>
       </c>
@@ -4103,7 +4091,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>7</v>
       </c>
@@ -4138,7 +4126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>6</v>
       </c>
@@ -4173,7 +4161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>17</v>
       </c>
@@ -4208,7 +4196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>5</v>
       </c>
@@ -4243,7 +4231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>18</v>
       </c>
@@ -4278,7 +4266,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>3</v>
       </c>
@@ -4313,7 +4301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>16</v>
       </c>
@@ -4348,7 +4336,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>10</v>
       </c>
@@ -4383,7 +4371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>19</v>
       </c>
@@ -4418,7 +4406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>6</v>
       </c>
@@ -4453,7 +4441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>3</v>
       </c>
@@ -4488,7 +4476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>15</v>
       </c>
@@ -4523,7 +4511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>20</v>
       </c>
@@ -4558,7 +4546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>17</v>
       </c>
@@ -4593,7 +4581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>11</v>
       </c>
@@ -4628,7 +4616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>14</v>
       </c>
@@ -4663,7 +4651,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>4</v>
       </c>
@@ -4698,7 +4686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>7</v>
       </c>
@@ -4733,7 +4721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>13</v>
       </c>
@@ -4768,7 +4756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>9</v>
       </c>
@@ -4803,7 +4791,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>13</v>
       </c>
@@ -4838,7 +4826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>3</v>
       </c>
@@ -4873,7 +4861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>6</v>
       </c>
@@ -4908,7 +4896,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>10</v>
       </c>
@@ -4943,7 +4931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>7</v>
       </c>
@@ -4978,7 +4966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>5</v>
       </c>
@@ -5013,7 +5001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>7</v>
       </c>
@@ -5048,7 +5036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>9</v>
       </c>
@@ -5083,7 +5071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>14</v>
       </c>
@@ -5118,7 +5106,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>18</v>
       </c>
@@ -5153,7 +5141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>9</v>
       </c>
@@ -5188,7 +5176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>16</v>
       </c>
@@ -5223,7 +5211,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>4</v>
       </c>
@@ -5258,7 +5246,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>3</v>
       </c>
@@ -5293,7 +5281,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>9</v>
       </c>
@@ -5328,7 +5316,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>5</v>
       </c>
@@ -5363,7 +5351,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>19</v>
       </c>
@@ -5398,7 +5386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>15</v>
       </c>
@@ -5433,7 +5421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>12</v>
       </c>
@@ -5468,7 +5456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>8</v>
       </c>
@@ -5503,7 +5491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>10</v>
       </c>
@@ -5538,7 +5526,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>20</v>
       </c>
@@ -5573,7 +5561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>7</v>
       </c>
@@ -5608,7 +5596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>20</v>
       </c>
@@ -5643,7 +5631,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>3</v>
       </c>
@@ -5678,7 +5666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>10</v>
       </c>
@@ -5713,7 +5701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>4</v>
       </c>
@@ -5748,7 +5736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>8</v>
       </c>
@@ -5783,7 +5771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>8</v>
       </c>
@@ -5818,7 +5806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>4</v>
       </c>
@@ -5853,7 +5841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>16</v>
       </c>
@@ -5888,7 +5876,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>9</v>
       </c>
@@ -5923,7 +5911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>6</v>
       </c>
@@ -5958,7 +5946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>13</v>
       </c>
@@ -5993,7 +5981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>5</v>
       </c>
@@ -6028,7 +6016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>5</v>
       </c>
@@ -6063,7 +6051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>4</v>
       </c>
@@ -6098,7 +6086,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>15</v>
       </c>
@@ -6133,7 +6121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>16</v>
       </c>
@@ -6168,7 +6156,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>11</v>
       </c>
@@ -6203,7 +6191,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>8</v>
       </c>
@@ -6238,7 +6226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>4</v>
       </c>
@@ -6273,7 +6261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>3</v>
       </c>
@@ -6308,7 +6296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>11</v>
       </c>
@@ -6343,7 +6331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>5</v>
       </c>
@@ -6378,7 +6366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>20</v>
       </c>
@@ -6413,7 +6401,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>11</v>
       </c>
@@ -6448,7 +6436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>3</v>
       </c>
@@ -6483,7 +6471,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>4</v>
       </c>
@@ -6518,7 +6506,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>13</v>
       </c>
@@ -6553,7 +6541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>12</v>
       </c>
@@ -6588,7 +6576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>6</v>
       </c>
@@ -6623,7 +6611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>15</v>
       </c>
@@ -6658,7 +6646,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>11</v>
       </c>
@@ -6693,7 +6681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>5</v>
       </c>
@@ -6728,7 +6716,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>3</v>
       </c>
@@ -6763,7 +6751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>9</v>
       </c>
@@ -6798,7 +6786,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>12</v>
       </c>
@@ -6833,7 +6821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>3</v>
       </c>
@@ -6868,7 +6856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>10</v>
       </c>
@@ -6903,7 +6891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>9</v>
       </c>
@@ -6938,7 +6926,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>5</v>
       </c>
@@ -6973,7 +6961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>16</v>
       </c>
@@ -7008,7 +6996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>20</v>
       </c>
@@ -7043,7 +7031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>12</v>
       </c>
@@ -7078,7 +7066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>17</v>
       </c>
@@ -7113,7 +7101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>15</v>
       </c>
@@ -7148,7 +7136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>17</v>
       </c>
@@ -7183,7 +7171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>10</v>
       </c>
@@ -7218,7 +7206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>13</v>
       </c>
@@ -7253,7 +7241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>13</v>
       </c>
@@ -7288,7 +7276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>4</v>
       </c>
@@ -7323,7 +7311,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>19</v>
       </c>
@@ -7358,7 +7346,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>14</v>
       </c>
@@ -7393,7 +7381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>10</v>
       </c>
@@ -7428,7 +7416,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>16</v>
       </c>
@@ -7463,7 +7451,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>18</v>
       </c>
@@ -7498,7 +7486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>5</v>
       </c>
@@ -7533,7 +7521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>7</v>
       </c>
@@ -7568,7 +7556,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>6</v>
       </c>
@@ -7603,7 +7591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>11</v>
       </c>
@@ -7638,7 +7626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>14</v>
       </c>
@@ -7673,7 +7661,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>11</v>
       </c>
@@ -7708,7 +7696,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>5</v>
       </c>
@@ -7743,7 +7731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>8</v>
       </c>
@@ -7778,7 +7766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>4</v>
       </c>
@@ -7813,7 +7801,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>3</v>
       </c>
@@ -7848,7 +7836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>5</v>
       </c>
@@ -7883,7 +7871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>5</v>
       </c>
@@ -7918,7 +7906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>9</v>
       </c>
@@ -7953,7 +7941,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>3</v>
       </c>
@@ -7988,7 +7976,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>4</v>
       </c>
@@ -8023,7 +8011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>12</v>
       </c>
@@ -8058,7 +8046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>14</v>
       </c>
@@ -8093,7 +8081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>7</v>
       </c>
@@ -8128,7 +8116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>3</v>
       </c>
@@ -8163,7 +8151,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>4</v>
       </c>
@@ -8198,7 +8186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>8</v>
       </c>
@@ -8233,7 +8221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>8</v>
       </c>
